--- a/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB665AA-2EFA-4F36-9707-70C25FA108BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3DD041-CF9F-48D9-A5C5-7A5A73F512F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFF6BC34-B045-43B1-993F-F85F76227443}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE37ABA0-D334-46B9-B627-9D10052363C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>Creo que las vacunas son peligrosas</t>
@@ -113,7 +113,7 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -122,7 +122,7 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>Creo que las vacunas no son necesarias</t>
@@ -137,829 +137,829 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>3,59%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>9,78%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>9,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE95118-7EE5-46C7-82D6-3A6467317BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB843FF-308F-4B1E-8662-85F95D3396FD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2216,13 +2216,13 @@
         <v>16105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -2231,13 +2231,13 @@
         <v>11414</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -2246,13 +2246,13 @@
         <v>27519</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2267,13 @@
         <v>366291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>553</v>
@@ -2282,13 +2282,13 @@
         <v>375304</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>926</v>
@@ -2297,13 +2297,13 @@
         <v>741595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2318,13 @@
         <v>30199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -2333,13 +2333,13 @@
         <v>40258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -2348,13 +2348,13 @@
         <v>70457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2422,13 +2422,13 @@
         <v>99504</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -2437,13 +2437,13 @@
         <v>46833</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
@@ -2452,13 +2452,13 @@
         <v>146337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2473,13 @@
         <v>916</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2488,13 +2488,13 @@
         <v>3547</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2503,13 +2503,13 @@
         <v>4463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2524,13 @@
         <v>23692</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2539,13 +2539,13 @@
         <v>16802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -2554,13 +2554,13 @@
         <v>40494</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2575,13 @@
         <v>402897</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>697</v>
@@ -2590,13 +2590,13 @@
         <v>453576</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>1106</v>
@@ -2605,13 +2605,13 @@
         <v>856473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>42658</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -2641,13 +2641,13 @@
         <v>47086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -2656,13 +2656,13 @@
         <v>89744</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2730,13 @@
         <v>36661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -2745,13 +2745,13 @@
         <v>42960</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -2760,13 +2760,13 @@
         <v>79621</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>1040</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2796,13 +2796,13 @@
         <v>6309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2811,13 +2811,13 @@
         <v>7349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2832,13 @@
         <v>13818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -2850,10 +2850,10 @@
         <v>71</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -2862,13 +2862,13 @@
         <v>23231</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>279704</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>462</v>
@@ -2898,13 +2898,13 @@
         <v>270622</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>773</v>
@@ -2913,13 +2913,13 @@
         <v>550327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2934,13 @@
         <v>34676</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>54</v>
@@ -2949,13 +2949,13 @@
         <v>31173</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>91</v>
@@ -2964,13 +2964,13 @@
         <v>65850</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3038,13 +3038,13 @@
         <v>25508</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>81</v>
@@ -3053,13 +3053,13 @@
         <v>44195</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>114</v>
@@ -3068,13 +3068,13 @@
         <v>69703</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3089,13 @@
         <v>2694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -3104,13 +3104,13 @@
         <v>7790</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -3119,13 +3119,13 @@
         <v>10484</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3140,13 @@
         <v>12118</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -3155,13 +3155,13 @@
         <v>14691</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -3170,13 +3170,13 @@
         <v>26809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>80433</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>160</v>
@@ -3206,13 +3206,13 @@
         <v>84437</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>283</v>
@@ -3221,13 +3221,13 @@
         <v>164870</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3242,13 @@
         <v>16568</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>29</v>
@@ -3257,13 +3257,13 @@
         <v>15666</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -3272,13 +3272,13 @@
         <v>32234</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>266200</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H40" s="7">
         <v>323</v>
@@ -3415,10 +3415,10 @@
         <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -3430,10 +3430,10 @@
         <v>114</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3448,13 @@
         <v>75230</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>85</v>
@@ -3463,13 +3463,13 @@
         <v>65243</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>164</v>
@@ -3478,13 +3478,13 @@
         <v>140473</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>289</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3499,13 @@
         <v>1719272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H43" s="7">
         <v>2329</v>
@@ -3514,13 +3514,13 @@
         <v>1774323</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>295</v>
+        <v>171</v>
       </c>
       <c r="M43" s="7">
         <v>3899</v>
@@ -3529,13 +3529,13 @@
         <v>3493595</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3550,13 @@
         <v>170656</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>276</v>
@@ -3565,13 +3565,13 @@
         <v>196749</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>438</v>
@@ -3580,10 +3580,10 @@
         <v>367406</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>307</v>

--- a/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3DD041-CF9F-48D9-A5C5-7A5A73F512F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCBB462-FD0A-4F71-AF90-EF8E51363A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE37ABA0-D334-46B9-B627-9D10052363C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1983C6BF-0EFC-4100-AAAB-02E6C3A19717}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB843FF-308F-4B1E-8662-85F95D3396FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A570D-F6E0-47B4-A519-76C1B8E505BB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCBB462-FD0A-4F71-AF90-EF8E51363A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E2BF70-727C-4EDD-9BF5-7667BF224020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1983C6BF-0EFC-4100-AAAB-02E6C3A19717}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E48E2D13-31E9-4C6D-8375-74E89CDAF682}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,892 +74,892 @@
     <t>10,85%</t>
   </si>
   <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas son peligrosas</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas son peligrosas</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>8,97%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>9,01%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A570D-F6E0-47B4-A519-76C1B8E505BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE15574-C9B9-481A-9442-69A8FD2DE5FB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2216,13 +2216,13 @@
         <v>16105</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -2231,13 +2231,13 @@
         <v>11414</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -2246,13 +2246,13 @@
         <v>27519</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2267,13 @@
         <v>366291</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>553</v>
@@ -2282,13 +2282,13 @@
         <v>375304</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>926</v>
@@ -2297,13 +2297,13 @@
         <v>741595</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2318,13 @@
         <v>30199</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -2333,13 +2333,13 @@
         <v>40258</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -2348,13 +2348,13 @@
         <v>70457</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2422,13 +2422,13 @@
         <v>99504</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -2437,13 +2437,13 @@
         <v>46833</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
@@ -2452,13 +2452,13 @@
         <v>146337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2473,13 @@
         <v>916</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2488,13 +2488,13 @@
         <v>3547</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2503,13 +2503,13 @@
         <v>4463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2524,13 @@
         <v>23692</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2539,13 +2539,13 @@
         <v>16802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -2554,13 +2554,13 @@
         <v>40494</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2575,13 @@
         <v>402897</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>697</v>
@@ -2590,13 +2590,13 @@
         <v>453576</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>1106</v>
@@ -2605,13 +2605,13 @@
         <v>856473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>42658</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -2641,13 +2641,13 @@
         <v>47086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -2656,13 +2656,13 @@
         <v>89744</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2730,13 @@
         <v>36661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -2745,13 +2745,13 @@
         <v>42960</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -2760,13 +2760,13 @@
         <v>79621</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2781,13 @@
         <v>1040</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2796,13 +2796,13 @@
         <v>6309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2811,13 +2811,13 @@
         <v>7349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2832,13 @@
         <v>13818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -2850,10 +2850,10 @@
         <v>71</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -2862,13 +2862,13 @@
         <v>23231</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>279704</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>462</v>
@@ -2898,13 +2898,13 @@
         <v>270622</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>773</v>
@@ -2913,13 +2913,13 @@
         <v>550327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2934,13 @@
         <v>34676</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>54</v>
@@ -2949,13 +2949,13 @@
         <v>31173</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>91</v>
@@ -2964,13 +2964,13 @@
         <v>65850</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3038,13 +3038,13 @@
         <v>25508</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>81</v>
@@ -3053,13 +3053,13 @@
         <v>44195</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>114</v>
@@ -3068,13 +3068,13 @@
         <v>69703</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3089,13 @@
         <v>2694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -3104,13 +3104,13 @@
         <v>7790</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -3119,13 +3119,13 @@
         <v>10484</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3140,13 @@
         <v>12118</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -3155,13 +3155,13 @@
         <v>14691</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -3170,13 +3170,13 @@
         <v>26809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>80433</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>160</v>
@@ -3206,13 +3206,13 @@
         <v>84437</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>283</v>
@@ -3221,13 +3221,13 @@
         <v>164870</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3242,13 @@
         <v>16568</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>29</v>
@@ -3257,13 +3257,13 @@
         <v>15666</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -3272,13 +3272,13 @@
         <v>32234</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>266200</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H40" s="7">
         <v>323</v>
@@ -3415,10 +3415,10 @@
         <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -3430,10 +3430,10 @@
         <v>114</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3448,13 @@
         <v>75230</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H42" s="7">
         <v>85</v>
@@ -3463,13 +3463,13 @@
         <v>65243</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M42" s="7">
         <v>164</v>
@@ -3478,13 +3478,13 @@
         <v>140473</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3499,13 @@
         <v>1719272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H43" s="7">
         <v>2329</v>
@@ -3514,13 +3514,13 @@
         <v>1774323</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="M43" s="7">
         <v>3899</v>
@@ -3529,13 +3529,13 @@
         <v>3493595</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3550,13 @@
         <v>170656</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>276</v>
@@ -3565,13 +3565,13 @@
         <v>196749</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>438</v>
@@ -3580,10 +3580,10 @@
         <v>367406</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>307</v>

--- a/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E2BF70-727C-4EDD-9BF5-7667BF224020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A4F323-F17C-4A44-ADF2-E1FE450124FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E48E2D13-31E9-4C6D-8375-74E89CDAF682}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7A0A61E3-33E1-4F65-92F5-A66DBA00DBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="342">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -65,37 +65,37 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>Creo que las vacunas son peligrosas</t>
@@ -107,859 +107,958 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1374,8 +1473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE15574-C9B9-481A-9442-69A8FD2DE5FB}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70899E5C-6E49-46B9-AB53-2DF79BE50BE4}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1495,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>37675</v>
+        <v>39949</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1510,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>19496</v>
+        <v>17653</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1525,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>57172</v>
+        <v>57602</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1546,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1561,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1987</v>
+        <v>1896</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1576,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>2308</v>
+        <v>2227</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1612,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>3473</v>
+        <v>3130</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1627,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>3473</v>
+        <v>3130</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>34</v>
@@ -1648,7 +1747,7 @@
         <v>137</v>
       </c>
       <c r="D7" s="7">
-        <v>285205</v>
+        <v>299237</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1663,7 +1762,7 @@
         <v>150</v>
       </c>
       <c r="I7" s="7">
-        <v>253423</v>
+        <v>221878</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1678,7 +1777,7 @@
         <v>287</v>
       </c>
       <c r="N7" s="7">
-        <v>538628</v>
+        <v>521115</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -1699,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>23881</v>
+        <v>25804</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -1714,7 +1813,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>25660</v>
+        <v>21927</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1729,7 +1828,7 @@
         <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>49541</v>
+        <v>47731</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>53</v>
@@ -1750,7 +1849,7 @@
         <v>161</v>
       </c>
       <c r="D9" s="7">
-        <v>347083</v>
+        <v>365321</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>56</v>
@@ -1765,7 +1864,7 @@
         <v>179</v>
       </c>
       <c r="I9" s="7">
-        <v>304039</v>
+        <v>266484</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -1780,7 +1879,7 @@
         <v>340</v>
       </c>
       <c r="N9" s="7">
-        <v>651122</v>
+        <v>631805</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1803,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>25735</v>
+        <v>26414</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -1818,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>25106</v>
+        <v>23278</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>61</v>
@@ -1833,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>50841</v>
+        <v>49692</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
@@ -1854,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1878,22 +1977,22 @@
         <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,46 +2004,46 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>9497</v>
+        <v>8802</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>9450</v>
+        <v>8144</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>18947</v>
+        <v>16945</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,46 +2055,46 @@
         <v>217</v>
       </c>
       <c r="D13" s="7">
-        <v>304741</v>
+        <v>299881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>307</v>
       </c>
       <c r="I13" s="7">
-        <v>336961</v>
+        <v>363845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>524</v>
       </c>
       <c r="N13" s="7">
-        <v>641702</v>
+        <v>663725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,46 +2106,46 @@
         <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>22674</v>
+        <v>22545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>36905</v>
+        <v>32230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>59579</v>
+        <v>54775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2157,7 @@
         <v>260</v>
       </c>
       <c r="D15" s="7">
-        <v>363934</v>
+        <v>358933</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -2073,7 +2172,7 @@
         <v>378</v>
       </c>
       <c r="I15" s="7">
-        <v>408422</v>
+        <v>427497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -2088,7 +2187,7 @@
         <v>638</v>
       </c>
       <c r="N15" s="7">
-        <v>772355</v>
+        <v>786430</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -2102,7 +2201,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2111,28 +2210,28 @@
         <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>41117</v>
+        <v>39935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>49836</v>
+        <v>46726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>104</v>
@@ -2141,7 +2240,7 @@
         <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>90953</v>
+        <v>86662</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>105</v>
@@ -2162,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>108</v>
@@ -2177,31 +2276,31 @@
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1741</v>
+        <v>1665</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1901</v>
+        <v>1829</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,10 +2312,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>16105</v>
+        <v>15003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>115</v>
@@ -2228,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>11414</v>
+        <v>10660</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>117</v>
@@ -2237,22 +2336,22 @@
         <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>27519</v>
+        <v>25664</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,7 +2363,7 @@
         <v>373</v>
       </c>
       <c r="D19" s="7">
-        <v>366291</v>
+        <v>354848</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>122</v>
@@ -2279,7 +2378,7 @@
         <v>553</v>
       </c>
       <c r="I19" s="7">
-        <v>375304</v>
+        <v>349389</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>125</v>
@@ -2294,7 +2393,7 @@
         <v>926</v>
       </c>
       <c r="N19" s="7">
-        <v>741595</v>
+        <v>704237</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>128</v>
@@ -2315,7 +2414,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="7">
-        <v>30199</v>
+        <v>28709</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>131</v>
@@ -2330,7 +2429,7 @@
         <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>40258</v>
+        <v>37195</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>134</v>
@@ -2345,7 +2444,7 @@
         <v>91</v>
       </c>
       <c r="N20" s="7">
-        <v>70457</v>
+        <v>65904</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>137</v>
@@ -2366,7 +2465,7 @@
         <v>457</v>
       </c>
       <c r="D21" s="7">
-        <v>453871</v>
+        <v>438660</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>56</v>
@@ -2381,7 +2480,7 @@
         <v>701</v>
       </c>
       <c r="I21" s="7">
-        <v>478553</v>
+        <v>445636</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -2396,7 +2495,7 @@
         <v>1158</v>
       </c>
       <c r="N21" s="7">
-        <v>932425</v>
+        <v>884296</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -2419,7 +2518,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>99504</v>
+        <v>290641</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>141</v>
@@ -2434,31 +2533,31 @@
         <v>72</v>
       </c>
       <c r="I22" s="7">
-        <v>46833</v>
+        <v>43632</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>113</v>
       </c>
       <c r="N22" s="7">
-        <v>146337</v>
+        <v>334273</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,46 +2569,46 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>916</v>
+        <v>863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>3547</v>
+        <v>3325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>4463</v>
+        <v>4187</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,46 +2620,46 @@
         <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>23692</v>
+        <v>26306</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>16802</v>
+        <v>13911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
       </c>
       <c r="N24" s="7">
-        <v>40494</v>
+        <v>40217</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,46 +2671,46 @@
         <v>409</v>
       </c>
       <c r="D25" s="7">
-        <v>402897</v>
+        <v>385481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>697</v>
       </c>
       <c r="I25" s="7">
-        <v>453576</v>
+        <v>443370</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>1106</v>
       </c>
       <c r="N25" s="7">
-        <v>856473</v>
+        <v>828851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,46 +2722,46 @@
         <v>45</v>
       </c>
       <c r="D26" s="7">
-        <v>42658</v>
+        <v>40536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
       </c>
       <c r="I26" s="7">
-        <v>47086</v>
+        <v>43836</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
       </c>
       <c r="N26" s="7">
-        <v>89744</v>
+        <v>84372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,7 +2773,7 @@
         <v>519</v>
       </c>
       <c r="D27" s="7">
-        <v>569667</v>
+        <v>743827</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>56</v>
@@ -2689,7 +2788,7 @@
         <v>868</v>
       </c>
       <c r="I27" s="7">
-        <v>567844</v>
+        <v>548074</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -2704,7 +2803,7 @@
         <v>1387</v>
       </c>
       <c r="N27" s="7">
-        <v>1137511</v>
+        <v>1291901</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -2718,7 +2817,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2727,46 +2826,46 @@
         <v>37</v>
       </c>
       <c r="D28" s="7">
-        <v>36661</v>
+        <v>35136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
       </c>
       <c r="I28" s="7">
-        <v>42960</v>
+        <v>39751</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
       </c>
       <c r="N28" s="7">
-        <v>79621</v>
+        <v>74887</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,46 +2877,46 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>6309</v>
+        <v>5799</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
       </c>
       <c r="N29" s="7">
-        <v>7349</v>
+        <v>6789</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,46 +2928,46 @@
         <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>13818</v>
+        <v>12748</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>9413</v>
+        <v>8706</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
       </c>
       <c r="N30" s="7">
-        <v>23231</v>
+        <v>21454</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,46 +2979,46 @@
         <v>311</v>
       </c>
       <c r="D31" s="7">
-        <v>279704</v>
+        <v>262481</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>462</v>
       </c>
       <c r="I31" s="7">
-        <v>270622</v>
+        <v>249423</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>773</v>
       </c>
       <c r="N31" s="7">
-        <v>550327</v>
+        <v>511904</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,46 +3030,46 @@
         <v>37</v>
       </c>
       <c r="D32" s="7">
-        <v>34676</v>
+        <v>32610</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>54</v>
       </c>
       <c r="I32" s="7">
-        <v>31173</v>
+        <v>28830</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>91</v>
       </c>
       <c r="N32" s="7">
-        <v>65850</v>
+        <v>61441</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +3081,7 @@
         <v>402</v>
       </c>
       <c r="D33" s="7">
-        <v>365899</v>
+        <v>343966</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>56</v>
@@ -2997,7 +3096,7 @@
         <v>609</v>
       </c>
       <c r="I33" s="7">
-        <v>360478</v>
+        <v>332510</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -3012,7 +3111,7 @@
         <v>1011</v>
       </c>
       <c r="N33" s="7">
-        <v>726378</v>
+        <v>676476</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>56</v>
@@ -3026,55 +3125,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D34" s="7">
-        <v>25508</v>
+        <v>15384</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7">
+        <v>48</v>
+      </c>
+      <c r="I34" s="7">
+        <v>23438</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>69</v>
+      </c>
+      <c r="N34" s="7">
+        <v>38822</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="7">
-        <v>81</v>
-      </c>
-      <c r="I34" s="7">
-        <v>44195</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M34" s="7">
-        <v>114</v>
-      </c>
-      <c r="N34" s="7">
-        <v>69703</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,49 +3182,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>2694</v>
+        <v>1610</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="7">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3696</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>9</v>
+      </c>
+      <c r="N35" s="7">
+        <v>5306</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H35" s="7">
-        <v>13</v>
-      </c>
-      <c r="I35" s="7">
-        <v>7790</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M35" s="7">
-        <v>16</v>
-      </c>
-      <c r="N35" s="7">
-        <v>10484</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,49 +3233,49 @@
         <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
-        <v>12118</v>
+        <v>6962</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="7">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7923</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>25</v>
+      </c>
+      <c r="N36" s="7">
+        <v>14886</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="7">
-        <v>27</v>
-      </c>
-      <c r="I36" s="7">
-        <v>14691</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M36" s="7">
-        <v>43</v>
-      </c>
-      <c r="N36" s="7">
-        <v>26809</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,49 +3284,49 @@
         <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D37" s="7">
-        <v>80433</v>
+        <v>64382</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H37" s="7">
+        <v>121</v>
+      </c>
+      <c r="I37" s="7">
+        <v>57841</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H37" s="7">
-        <v>160</v>
-      </c>
-      <c r="I37" s="7">
-        <v>84437</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>227</v>
+      </c>
+      <c r="N37" s="7">
+        <v>122223</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="M37" s="7">
-        <v>283</v>
-      </c>
-      <c r="N37" s="7">
-        <v>164870</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3335,49 @@
         <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D38" s="7">
-        <v>16568</v>
+        <v>8280</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="7">
+        <v>15</v>
+      </c>
+      <c r="I38" s="7">
+        <v>7466</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H38" s="7">
-        <v>29</v>
-      </c>
-      <c r="I38" s="7">
-        <v>15666</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>26</v>
+      </c>
+      <c r="N38" s="7">
+        <v>15746</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M38" s="7">
-        <v>51</v>
-      </c>
-      <c r="N38" s="7">
-        <v>32234</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="D39" s="7">
-        <v>137321</v>
+        <v>96618</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>56</v>
@@ -3302,10 +3401,10 @@
         <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="I39" s="7">
-        <v>166779</v>
+        <v>100364</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>56</v>
@@ -3317,10 +3416,10 @@
         <v>56</v>
       </c>
       <c r="M39" s="7">
-        <v>507</v>
+        <v>356</v>
       </c>
       <c r="N39" s="7">
-        <v>304099</v>
+        <v>196982</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -3334,55 +3433,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7">
-        <v>266200</v>
+        <v>8699</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H40" s="7">
+        <v>33</v>
+      </c>
+      <c r="I40" s="7">
+        <v>17077</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H40" s="7">
-        <v>323</v>
-      </c>
-      <c r="I40" s="7">
-        <v>228426</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>45</v>
+      </c>
+      <c r="N40" s="7">
+        <v>25776</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="M40" s="7">
-        <v>499</v>
-      </c>
-      <c r="N40" s="7">
-        <v>494626</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,49 +3490,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>6417</v>
+        <v>941</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6</v>
+      </c>
+      <c r="I41" s="7">
+        <v>3414</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M41" s="7">
+        <v>7</v>
+      </c>
+      <c r="N41" s="7">
+        <v>4356</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H41" s="7">
-        <v>32</v>
-      </c>
-      <c r="I41" s="7">
-        <v>21373</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M41" s="7">
-        <v>41</v>
-      </c>
-      <c r="N41" s="7">
-        <v>27790</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3541,49 @@
         <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D42" s="7">
-        <v>75230</v>
+        <v>4246</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H42" s="7">
+        <v>12</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5635</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="7">
+        <v>18</v>
+      </c>
+      <c r="N42" s="7">
+        <v>9882</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H42" s="7">
-        <v>85</v>
-      </c>
-      <c r="I42" s="7">
-        <v>65243</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="M42" s="7">
-        <v>164</v>
-      </c>
-      <c r="N42" s="7">
-        <v>140473</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,49 +3592,49 @@
         <v>36</v>
       </c>
       <c r="C43" s="7">
-        <v>1570</v>
+        <v>17</v>
       </c>
       <c r="D43" s="7">
-        <v>1719272</v>
+        <v>10244</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>39</v>
+      </c>
+      <c r="I43" s="7">
+        <v>19469</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H43" s="7">
-        <v>2329</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1774323</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>56</v>
+      </c>
+      <c r="N43" s="7">
+        <v>29713</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="M43" s="7">
-        <v>3899</v>
-      </c>
-      <c r="N43" s="7">
-        <v>3493595</v>
-      </c>
-      <c r="O43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,49 +3643,49 @@
         <v>46</v>
       </c>
       <c r="C44" s="7">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="D44" s="7">
-        <v>170656</v>
+        <v>7133</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="H44" s="7">
+        <v>14</v>
+      </c>
+      <c r="I44" s="7">
+        <v>6900</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="K44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H44" s="7">
-        <v>276</v>
-      </c>
-      <c r="I44" s="7">
-        <v>196749</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>25</v>
+      </c>
+      <c r="N44" s="7">
+        <v>14032</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M44" s="7">
-        <v>438</v>
-      </c>
-      <c r="N44" s="7">
-        <v>367406</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,63 +3694,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>47</v>
+      </c>
+      <c r="D45" s="7">
+        <v>31263</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7">
+        <v>104</v>
+      </c>
+      <c r="I45" s="7">
+        <v>52496</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="7">
+        <v>151</v>
+      </c>
+      <c r="N45" s="7">
+        <v>83759</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>176</v>
+      </c>
+      <c r="D46" s="7">
+        <v>456159</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H46" s="7">
+        <v>323</v>
+      </c>
+      <c r="I46" s="7">
+        <v>211556</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" s="7">
+        <v>499</v>
+      </c>
+      <c r="N46" s="7">
+        <v>667715</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7">
+        <v>6191</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" s="7">
+        <v>32</v>
+      </c>
+      <c r="I47" s="7">
+        <v>19795</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M47" s="7">
+        <v>41</v>
+      </c>
+      <c r="N47" s="7">
+        <v>25986</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>79</v>
+      </c>
+      <c r="D48" s="7">
+        <v>74068</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H48" s="7">
+        <v>85</v>
+      </c>
+      <c r="I48" s="7">
+        <v>58110</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M48" s="7">
+        <v>164</v>
+      </c>
+      <c r="N48" s="7">
+        <v>132178</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1570</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1676552</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H49" s="7">
+        <v>2329</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1705215</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" s="7">
+        <v>3899</v>
+      </c>
+      <c r="N49" s="7">
+        <v>3381767</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7">
+        <v>162</v>
+      </c>
+      <c r="D50" s="7">
+        <v>165617</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H50" s="7">
+        <v>276</v>
+      </c>
+      <c r="I50" s="7">
+        <v>178385</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M50" s="7">
+        <v>438</v>
+      </c>
+      <c r="N50" s="7">
+        <v>344002</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1996</v>
       </c>
-      <c r="D45" s="7">
-        <v>2237775</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>2378587</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
         <v>3045</v>
       </c>
-      <c r="I45" s="7">
-        <v>2286115</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>2173061</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7">
         <v>5041</v>
       </c>
-      <c r="N45" s="7">
-        <v>4523890</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>308</v>
+      <c r="N51" s="7">
+        <v>4551648</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
